--- a/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-27.xlsx
+++ b/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-27.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.611</v>
+        <v>1611</v>
       </c>
       <c r="C2" t="n">
         <v>63</v>
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.771</v>
+        <v>5771</v>
       </c>
       <c r="C3" t="n">
         <v>59</v>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.027000000000001</v>
+        <v>8027</v>
       </c>
       <c r="C4" t="n">
         <v>285</v>
@@ -489,7 +489,7 @@
         <v>142</v>
       </c>
       <c r="H4" t="n">
-        <v>1.633</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.781</v>
+        <v>2781</v>
       </c>
       <c r="C6" t="n">
         <v>75</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.054</v>
+        <v>11054</v>
       </c>
       <c r="C7" t="n">
         <v>257</v>
@@ -573,7 +573,7 @@
         <v>217</v>
       </c>
       <c r="H7" t="n">
-        <v>2.14</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="8">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211.819</v>
+        <v>211819</v>
       </c>
       <c r="C8" t="n">
-        <v>2.957</v>
+        <v>2957</v>
       </c>
       <c r="D8" t="n">
-        <v>2.295</v>
+        <v>2295</v>
       </c>
       <c r="E8" t="n">
         <v>239</v>
@@ -598,10 +598,10 @@
         <v>423</v>
       </c>
       <c r="G8" t="n">
-        <v>4.584</v>
+        <v>4584</v>
       </c>
       <c r="H8" t="n">
-        <v>21.983</v>
+        <v>21983</v>
       </c>
     </row>
     <row r="9">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.322</v>
+        <v>5322</v>
       </c>
       <c r="C9" t="n">
         <v>186</v>
@@ -629,7 +629,7 @@
         <v>68</v>
       </c>
       <c r="H9" t="n">
-        <v>1.997</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="10">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.182</v>
+        <v>5182</v>
       </c>
       <c r="C10" t="n">
         <v>169</v>
@@ -657,7 +657,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>1.37</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.317</v>
+        <v>2317</v>
       </c>
       <c r="C11" t="n">
         <v>43</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.138999999999999</v>
+        <v>6139</v>
       </c>
       <c r="C12" t="n">
         <v>181</v>
@@ -713,7 +713,7 @@
         <v>46</v>
       </c>
       <c r="H12" t="n">
-        <v>1.953</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="13">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.128</v>
+        <v>3128</v>
       </c>
       <c r="C13" t="n">
         <v>23</v>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.573</v>
+        <v>1573</v>
       </c>
       <c r="C15" t="n">
         <v>32</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.423</v>
+        <v>1423</v>
       </c>
       <c r="C17" t="n">
         <v>26</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>267.766</v>
+        <v>267766</v>
       </c>
       <c r="C18" t="n">
-        <v>4.406000000000001</v>
+        <v>4406</v>
       </c>
       <c r="D18" t="n">
-        <v>3.481</v>
+        <v>3481</v>
       </c>
       <c r="E18" t="n">
         <v>426</v>
@@ -878,10 +878,10 @@
         <v>499</v>
       </c>
       <c r="G18" t="n">
-        <v>5.347</v>
+        <v>5347</v>
       </c>
       <c r="H18" t="n">
-        <v>34.364</v>
+        <v>34364</v>
       </c>
     </row>
   </sheetData>
